--- a/Rza.xlsx
+++ b/Rza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Время/Дата</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>Mon Feb 20 2023 17:08:00</t>
+    <t>30/01/2023 16:12:26.204</t>
   </si>
   <si>
     <t>T1_AUV</t>
@@ -37,19 +37,16 @@
     <t>В110кВТ1/АУВ/Включение выключателя</t>
   </si>
   <si>
-    <t>Mon Feb 20 2023 17:08:01</t>
+    <t>30/01/2023 16:12:24.204</t>
   </si>
   <si>
-    <t>Mon Feb 20 2023 17:08:02</t>
+    <t>30/01/2023 16:10:26.204</t>
   </si>
   <si>
-    <t>Mon Feb 20 2023 17:08:03</t>
+    <t>30/01/2023 16:10:26.100</t>
   </si>
   <si>
-    <t>Mon Feb 20 2023 17:08:04</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 2023 17:08:05</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -57,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +65,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,12 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -424,10 +433,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="48.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -444,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -458,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -486,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -500,1447 +509,1433 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>11</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="2"/>
+      <c r="D200" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="2"/>
+      <c r="D203" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rza.xlsx
+++ b/Rza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Время/Дата</t>
   </si>
@@ -45,28 +45,19 @@
   <si>
     <t>30/01/2023 16:10:26.100</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -102,19 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -123,7 +108,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,13 +418,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="48.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,1432 +495,1390 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="D13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="D14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="5"/>
+      <c r="D151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="5"/>
+      <c r="D199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="5"/>
+      <c r="D201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="5"/>
+      <c r="D202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="5"/>
+      <c r="D203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="5"/>
+      <c r="D204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="5"/>
+      <c r="D205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="5"/>
+      <c r="D206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="5"/>
+      <c r="D207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="5"/>
+      <c r="D208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="5"/>
+      <c r="D209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="5"/>
+      <c r="D210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="5"/>
+      <c r="D211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="5"/>
+      <c r="D212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="5"/>
+      <c r="D215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="5"/>
+      <c r="D216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="5"/>
+      <c r="D217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="5"/>
+      <c r="D218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="5"/>
+      <c r="D219" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="5"/>
+      <c r="D220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="5"/>
+      <c r="D221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="5"/>
+      <c r="D222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="5"/>
+      <c r="D223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="5"/>
+      <c r="D224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="5"/>
+      <c r="D225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="5"/>
+      <c r="D226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="5"/>
+      <c r="D227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="5"/>
+      <c r="D228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="5"/>
+      <c r="D229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="5"/>
+      <c r="D230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="5"/>
+      <c r="D231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="5"/>
+      <c r="D232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="5"/>
+      <c r="D233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="5"/>
+      <c r="D234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="5"/>
+      <c r="D235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="5"/>
+      <c r="D236" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
